--- a/src/main/resources/Music/List of all publications.xlsx
+++ b/src/main/resources/Music/List of all publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Chanson</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -236,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +420,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -577,9 +595,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -903,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,10 +969,10 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -956,14 +980,17 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,24 +1017,30 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1021,8 +1054,8 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -1035,8 +1068,14 @@
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1103,6 +1142,9 @@
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1111,8 +1153,11 @@
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
@@ -1139,14 +1184,17 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,8 +1218,14 @@
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,11 +1238,19 @@
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Music/List of all publications.xlsx
+++ b/src/main/resources/Music/List of all publications.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="List of all publications" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -930,7 +930,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,6 +1210,9 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1219,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -1247,9 +1250,11 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
+        <f>COUNTIF(C2:C18,"ok")</f>
         <v>14</v>
       </c>
       <c r="E19" s="1">
+        <f>COUNTIF(E2:E18,"ok")</f>
         <v>12</v>
       </c>
     </row>

--- a/src/main/resources/Music/List of all publications.xlsx
+++ b/src/main/resources/Music/List of all publications.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\workspace\AllMusic\src\main\resources\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Marie\Documents\Dev\workspace\AllMusic\src\main\resources\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="List of all publications" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Mojo</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Music 4 Ants</t>
   </si>
   <si>
@@ -96,10 +93,25 @@
     <t>Chanson</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>http://www.acclaimedmusic.net/updates.htm</t>
+  </si>
+  <si>
+    <t>http://www.acclaimedmusic.net/all_critics_lists.htm</t>
+  </si>
+  <si>
+    <t>http://www.acclaimedmusic.net/forums</t>
+  </si>
+  <si>
+    <t>http://www.rocklistmusic.co.uk/2020sndx.htm</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -435,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -550,6 +562,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -595,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,55 +674,119 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -665,7 +800,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -927,338 +1062,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E10" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <f>COUNTIF(C2:C18,"o")</f>
+        <v>13</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <f>COUNTIF(E2:E18,"o")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <f>COUNTIF(C2:C18,"ok")</f>
-        <v>14</v>
-      </c>
-      <c r="E19" s="1">
-        <f>COUNTIF(E2:E18,"ok")</f>
-        <v>12</v>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C12 E1:E12 E14:E1048576 C14:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"o"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:E13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"o"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/Music/List of all publications.xlsx
+++ b/src/main/resources/Music/List of all publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -745,7 +748,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1065,7 +1098,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1157,9 @@
       <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1190,7 +1225,9 @@
       <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1270,10 +1307,12 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="D12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1393,7 +1432,7 @@
       </c>
       <c r="E19" s="6">
         <f>COUNTIF(E2:E18,"o")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1418,19 +1457,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C12 E1:E12 E14:E1048576 C14:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"o"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"o"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
